--- a/Code/Results/Cases/Case_1_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9815578497909314</v>
+        <v>1.101058557113987</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08847487743208404</v>
+        <v>0.192460773227225</v>
       </c>
       <c r="E2">
-        <v>0.08102403966398164</v>
+        <v>0.2103385038075398</v>
       </c>
       <c r="F2">
-        <v>0.8382018619440146</v>
+        <v>1.723840628001696</v>
       </c>
       <c r="G2">
-        <v>0.0008160143631602173</v>
+        <v>0.002484740335981277</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1117584079407639</v>
+        <v>0.2777475623083427</v>
       </c>
       <c r="K2">
-        <v>1.207137865678305</v>
+        <v>0.4231933473978984</v>
       </c>
       <c r="L2">
-        <v>0.2645813351110462</v>
+        <v>0.1702510204662246</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.0783334368186</v>
+        <v>2.22843271254706</v>
       </c>
       <c r="O2">
-        <v>2.070980582045593</v>
+        <v>4.224683834273407</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8765788762809734</v>
+        <v>1.077114746702648</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08415225235547297</v>
+        <v>0.1921783340519028</v>
       </c>
       <c r="E3">
-        <v>0.0817905588180583</v>
+        <v>0.211461293987087</v>
       </c>
       <c r="F3">
-        <v>0.8160101196407865</v>
+        <v>1.728848985728661</v>
       </c>
       <c r="G3">
-        <v>0.0008197443076463012</v>
+        <v>0.00248726880107774</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.114798699640807</v>
+        <v>0.2796013600975842</v>
       </c>
       <c r="K3">
-        <v>1.050541473597491</v>
+        <v>0.3767427502663452</v>
       </c>
       <c r="L3">
-        <v>0.2305613204581647</v>
+        <v>0.1611192878145999</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.126233792159762</v>
+        <v>2.249179115810777</v>
       </c>
       <c r="O3">
-        <v>2.022892025273592</v>
+        <v>4.239664043588675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.812761872454189</v>
+        <v>1.062865150140539</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08157142275038609</v>
+        <v>0.1920649250370872</v>
       </c>
       <c r="E4">
-        <v>0.08233916887695081</v>
+        <v>0.2122080888849247</v>
       </c>
       <c r="F4">
-        <v>0.803688264559284</v>
+        <v>1.732691006530068</v>
       </c>
       <c r="G4">
-        <v>0.0008221146827320676</v>
+        <v>0.00248890586971608</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1167621975707931</v>
+        <v>0.2808065774977031</v>
       </c>
       <c r="K4">
-        <v>0.9544838808103862</v>
+        <v>0.3482380443062141</v>
       </c>
       <c r="L4">
-        <v>0.2097539394284809</v>
+        <v>0.1555667541306462</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.156867425211971</v>
+        <v>2.262571177744029</v>
       </c>
       <c r="O4">
-        <v>1.996866145144224</v>
+        <v>4.250827949614802</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7869055177113751</v>
+        <v>1.057172623236767</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08053758118209231</v>
+        <v>0.192033856226395</v>
       </c>
       <c r="E5">
-        <v>0.08258203841174172</v>
+        <v>0.2125268763087274</v>
       </c>
       <c r="F5">
-        <v>0.7989818526220063</v>
+        <v>1.734449707927617</v>
       </c>
       <c r="G5">
-        <v>0.0008231010980840892</v>
+        <v>0.002489594319623674</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1175864384580381</v>
+        <v>0.2813145828211603</v>
       </c>
       <c r="K5">
-        <v>0.9153505114184384</v>
+        <v>0.336626867931983</v>
       </c>
       <c r="L5">
-        <v>0.201292055622261</v>
+        <v>0.1533178900329801</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.169652458631359</v>
+        <v>2.268192993887338</v>
       </c>
       <c r="O5">
-        <v>1.987103961920866</v>
+        <v>4.255872057541922</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7826208002005046</v>
+        <v>1.056234305724388</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08036697587018438</v>
+        <v>0.1920296137301065</v>
       </c>
       <c r="E6">
-        <v>0.0826235242749247</v>
+        <v>0.2125806850795371</v>
       </c>
       <c r="F6">
-        <v>0.7982190021233038</v>
+        <v>1.73475340472497</v>
       </c>
       <c r="G6">
-        <v>0.0008232661366238654</v>
+        <v>0.002489709926327893</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1177247520619318</v>
+        <v>0.2813999563943304</v>
       </c>
       <c r="K6">
-        <v>0.9088527484423423</v>
+        <v>0.3346991456776607</v>
       </c>
       <c r="L6">
-        <v>0.1998879236498823</v>
+        <v>0.1529453084516632</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.171793452082244</v>
+        <v>2.269136426100768</v>
       </c>
       <c r="O6">
-        <v>1.985532868035932</v>
+        <v>4.256739518643116</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8124125736663927</v>
+        <v>1.062787915088734</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08155740837677428</v>
+        <v>0.192064444630283</v>
       </c>
       <c r="E7">
-        <v>0.08234236651444782</v>
+        <v>0.2122123295662046</v>
       </c>
       <c r="F7">
-        <v>0.8036235342563387</v>
+        <v>1.732713943073492</v>
       </c>
       <c r="G7">
-        <v>0.0008221279025987793</v>
+        <v>0.002488915067879085</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1167732162883617</v>
+        <v>0.2808133602943972</v>
       </c>
       <c r="K7">
-        <v>0.953956086557298</v>
+        <v>0.3480814319217131</v>
       </c>
       <c r="L7">
-        <v>0.2096397534458134</v>
+        <v>0.1555363689159606</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.157038635099727</v>
+        <v>2.262646329612979</v>
       </c>
       <c r="O7">
-        <v>1.996731120573997</v>
+        <v>4.250893972619139</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9452210525569456</v>
+        <v>1.09270929310162</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08696888098408806</v>
+        <v>0.1923509665291476</v>
       </c>
       <c r="E8">
-        <v>0.08127197087059201</v>
+        <v>0.2107137467469826</v>
       </c>
       <c r="F8">
-        <v>0.830271462884177</v>
+        <v>1.725408470272846</v>
       </c>
       <c r="G8">
-        <v>0.0008172839973107823</v>
+        <v>0.002485594633567351</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1127864814592199</v>
+        <v>0.2783728670062553</v>
       </c>
       <c r="K8">
-        <v>1.153116258363809</v>
+        <v>0.4071742128405731</v>
       </c>
       <c r="L8">
-        <v>0.2528324938283362</v>
+        <v>0.1670912053546374</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.094592124417216</v>
+        <v>2.235450442124066</v>
       </c>
       <c r="O8">
-        <v>2.053650434464259</v>
+        <v>4.229441177480766</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.211298471904144</v>
+        <v>1.154947221653202</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09818932570175321</v>
+        <v>0.193386681095312</v>
       </c>
       <c r="E9">
-        <v>0.0798055853707389</v>
+        <v>0.2082291545515833</v>
       </c>
       <c r="F9">
-        <v>0.8934964869071962</v>
+        <v>1.717159150954238</v>
       </c>
       <c r="G9">
-        <v>0.0008084066157481029</v>
+        <v>0.002479751531908843</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1057466360295889</v>
+        <v>0.2741172431735688</v>
       </c>
       <c r="K9">
-        <v>1.54502845453257</v>
+        <v>0.5231596533615175</v>
       </c>
       <c r="L9">
-        <v>0.3383280018746149</v>
+        <v>0.1901758310244617</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9821092958453681</v>
+        <v>2.187302296827693</v>
       </c>
       <c r="O9">
-        <v>2.194795471410941</v>
+        <v>4.202958732303955</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.411061857956042</v>
+        <v>1.202818254818368</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1068445148486674</v>
+        <v>0.1944336422787956</v>
       </c>
       <c r="E10">
-        <v>0.07913433980742468</v>
+        <v>0.2066788228956149</v>
       </c>
       <c r="F10">
-        <v>0.9475515881797065</v>
+        <v>1.714793836201864</v>
       </c>
       <c r="G10">
-        <v>0.000802241786843471</v>
+        <v>0.002475862001265224</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.10106372656562</v>
+        <v>0.2713120466771768</v>
       </c>
       <c r="K10">
-        <v>1.834738281919556</v>
+        <v>0.6084147525859294</v>
       </c>
       <c r="L10">
-        <v>0.4018556404659961</v>
+        <v>0.2073894388844479</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9059442295908129</v>
+        <v>2.155081141790747</v>
       </c>
       <c r="O10">
-        <v>2.319075194165919</v>
+        <v>4.192990986065155</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.503066674221884</v>
+        <v>1.225056426734824</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1108809010591685</v>
+        <v>0.1949714521842765</v>
       </c>
       <c r="E11">
-        <v>0.0789219115350317</v>
+        <v>0.2060329035485591</v>
       </c>
       <c r="F11">
-        <v>0.9740105140181612</v>
+        <v>1.714518441189966</v>
       </c>
       <c r="G11">
-        <v>0.0007995098412612955</v>
+        <v>0.002474179297939689</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09904303531149683</v>
+        <v>0.2701052979079916</v>
       </c>
       <c r="K11">
-        <v>1.967145700689684</v>
+        <v>0.6472038826792357</v>
       </c>
       <c r="L11">
-        <v>0.4309660080156306</v>
+        <v>0.2152741686547301</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8727941390596303</v>
+        <v>2.141106259372561</v>
       </c>
       <c r="O11">
-        <v>2.380693421351083</v>
+        <v>4.190514408256661</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.538086482216698</v>
+        <v>1.233543220176443</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.112424452156894</v>
+        <v>0.1951839030125058</v>
       </c>
       <c r="E12">
-        <v>0.07885525177290553</v>
+        <v>0.205796813661614</v>
       </c>
       <c r="F12">
-        <v>0.984317820394665</v>
+        <v>1.714529104272842</v>
       </c>
       <c r="G12">
-        <v>0.0007984853126986248</v>
+        <v>0.0024735544999326</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09829392190113317</v>
+        <v>0.2696582779790919</v>
       </c>
       <c r="K12">
-        <v>2.017393369039951</v>
+        <v>0.6618926360590933</v>
       </c>
       <c r="L12">
-        <v>0.4420245296306717</v>
+        <v>0.2182675593238343</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8604649185821036</v>
+        <v>2.135912441962085</v>
       </c>
       <c r="O12">
-        <v>2.404811977456887</v>
+        <v>4.189872235437917</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.53053607223228</v>
+        <v>1.23171252684935</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1120913376246904</v>
+        <v>0.1951377577029305</v>
       </c>
       <c r="E13">
-        <v>0.07886898824575361</v>
+        <v>0.2058472819674364</v>
       </c>
       <c r="F13">
-        <v>0.9820848355875853</v>
+        <v>1.714521698192073</v>
       </c>
       <c r="G13">
-        <v>0.0007987055254877043</v>
+        <v>0.002473688510600794</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09845453650925329</v>
+        <v>0.2697541095652607</v>
       </c>
       <c r="K13">
-        <v>2.006566517977348</v>
+        <v>0.6587291551472845</v>
       </c>
       <c r="L13">
-        <v>0.4396412419771707</v>
+        <v>0.2176225432162653</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8631101312447109</v>
+        <v>2.137026657449394</v>
       </c>
       <c r="O13">
-        <v>2.399581796519385</v>
+        <v>4.189997393647729</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.505944075138075</v>
+        <v>1.225753327833928</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1110075833139277</v>
+        <v>0.1949887547180253</v>
       </c>
       <c r="E14">
-        <v>0.07891614869322794</v>
+        <v>0.20601330997461</v>
       </c>
       <c r="F14">
-        <v>0.9748526185801296</v>
+        <v>1.714517015702839</v>
       </c>
       <c r="G14">
-        <v>0.0007994253547923913</v>
+        <v>0.002474127647089253</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09898108117129123</v>
+        <v>0.2700683220330076</v>
       </c>
       <c r="K14">
-        <v>1.971277330434248</v>
+        <v>0.6484123364260483</v>
       </c>
       <c r="L14">
-        <v>0.4318750686933299</v>
+        <v>0.215520285103139</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8717752660591152</v>
+        <v>2.140676993469141</v>
       </c>
       <c r="O14">
-        <v>2.3826616120555</v>
+        <v>4.190455652441329</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.490904673695752</v>
+        <v>1.222111680058276</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.110345738531862</v>
+        <v>0.1948986296583826</v>
       </c>
       <c r="E15">
-        <v>0.0789468435326004</v>
+        <v>0.2061161138398298</v>
       </c>
       <c r="F15">
-        <v>0.9704607573094961</v>
+        <v>1.714529112100536</v>
       </c>
       <c r="G15">
-        <v>0.000799867560428269</v>
+        <v>0.002474398244809264</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09930570865593058</v>
+        <v>0.2702620813086565</v>
       </c>
       <c r="K15">
-        <v>1.949676321673053</v>
+        <v>0.6420929850297625</v>
       </c>
       <c r="L15">
-        <v>0.427122773137782</v>
+        <v>0.2142335777492264</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8771123478530098</v>
+        <v>2.142925713960435</v>
       </c>
       <c r="O15">
-        <v>2.372401420456271</v>
+        <v>4.190774844403848</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.405073312149682</v>
+        <v>1.201374165388387</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1065827896507585</v>
+        <v>0.1943997287487491</v>
       </c>
       <c r="E16">
-        <v>0.07915012773833219</v>
+        <v>0.2067222269383482</v>
       </c>
       <c r="F16">
-        <v>0.9458616505365143</v>
+        <v>1.714827928967111</v>
       </c>
       <c r="G16">
-        <v>0.0008024217486981948</v>
+        <v>0.002475973708950071</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1011980156520327</v>
+        <v>0.2713923040865636</v>
       </c>
       <c r="K16">
-        <v>1.826099164407083</v>
+        <v>0.6058798528996192</v>
       </c>
       <c r="L16">
-        <v>0.3999578533846773</v>
+        <v>0.2068752283608006</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9081415297232134</v>
+        <v>2.156008170330137</v>
       </c>
       <c r="O16">
-        <v>2.315155124820819</v>
+        <v>4.193194222586158</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.352720006318378</v>
+        <v>1.188770071696183</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1043002838282234</v>
+        <v>0.1941093918659931</v>
       </c>
       <c r="E17">
-        <v>0.07929892776454395</v>
+        <v>0.2071092357745403</v>
       </c>
       <c r="F17">
-        <v>0.9312628064821098</v>
+        <v>1.715216170780494</v>
       </c>
       <c r="G17">
-        <v>0.0008040069291438466</v>
+        <v>0.00247696236111863</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1023871752551582</v>
+        <v>0.2721034049414497</v>
       </c>
       <c r="K17">
-        <v>1.750459777757385</v>
+        <v>0.5836653244293473</v>
       </c>
       <c r="L17">
-        <v>0.3833503979443407</v>
+        <v>0.2023748696174863</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9275665096921024</v>
+        <v>2.164208682819683</v>
       </c>
       <c r="O17">
-        <v>2.281375607957415</v>
+        <v>4.195205302715351</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.322713191884333</v>
+        <v>1.181563999359213</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.102996723028717</v>
+        <v>0.1939481937256886</v>
       </c>
       <c r="E18">
-        <v>0.07939323366316309</v>
+        <v>0.2073374194212203</v>
       </c>
       <c r="F18">
-        <v>0.9230406382829273</v>
+        <v>1.715514843838832</v>
       </c>
       <c r="G18">
-        <v>0.0008049255304333447</v>
+        <v>0.002477539168300346</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.103081443225042</v>
+        <v>0.2725189401644812</v>
       </c>
       <c r="K18">
-        <v>1.707010848237388</v>
+        <v>0.570888738700063</v>
       </c>
       <c r="L18">
-        <v>0.3738178209175658</v>
+        <v>0.1997914918287904</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.938879675176111</v>
+        <v>2.168989657926145</v>
       </c>
       <c r="O18">
-        <v>2.262421483986117</v>
+        <v>4.196555727945622</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.31257101017323</v>
+        <v>1.179131633284612</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1025569290799595</v>
+        <v>0.1938946119666696</v>
       </c>
       <c r="E19">
-        <v>0.07942664927897169</v>
+        <v>0.2074156387603363</v>
       </c>
       <c r="F19">
-        <v>0.9202861958962814</v>
+        <v>1.715628919058403</v>
       </c>
       <c r="G19">
-        <v>0.0008052377415283276</v>
+        <v>0.002477735868511743</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1033182690926946</v>
+        <v>0.2726607552761546</v>
       </c>
       <c r="K19">
-        <v>1.692308990099207</v>
+        <v>0.5665629357445425</v>
       </c>
       <c r="L19">
-        <v>0.3705934822556429</v>
+        <v>0.1989176874090219</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9427339838358613</v>
+        <v>2.170619450291734</v>
       </c>
       <c r="O19">
-        <v>2.256083926180992</v>
+        <v>4.19704623556828</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.358282075542434</v>
+        <v>1.190107304949862</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1045422947162606</v>
+        <v>0.1941396992683195</v>
       </c>
       <c r="E20">
-        <v>0.07928218228710726</v>
+        <v>0.2070674600440032</v>
       </c>
       <c r="F20">
-        <v>0.9327986629207743</v>
+        <v>1.715167042885852</v>
       </c>
       <c r="G20">
-        <v>0.0008038374782683433</v>
+        <v>0.002476856273002759</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1022595194456608</v>
+        <v>0.2720270314983431</v>
       </c>
       <c r="K20">
-        <v>1.758505702186937</v>
+        <v>0.5860300396935259</v>
       </c>
       <c r="L20">
-        <v>0.3851162294655239</v>
+        <v>0.2028534129417778</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9254840926409535</v>
+        <v>2.163329073904591</v>
       </c>
       <c r="O20">
-        <v>2.284921957669553</v>
+        <v>4.194971173896505</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.513162326914141</v>
+        <v>1.227501911817598</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1113254928244061</v>
+        <v>0.1950322822868884</v>
       </c>
       <c r="E21">
-        <v>0.07890191902092525</v>
+        <v>0.2059643128909094</v>
       </c>
       <c r="F21">
-        <v>0.9769689241539936</v>
+        <v>1.714515272777277</v>
       </c>
       <c r="G21">
-        <v>0.000799213655560657</v>
+        <v>0.002473998325854741</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09882598324206082</v>
+        <v>0.2699757603642707</v>
       </c>
       <c r="K21">
-        <v>1.981639533620523</v>
+        <v>0.6514426379026759</v>
       </c>
       <c r="L21">
-        <v>0.4341551917034678</v>
+        <v>0.2161375640100687</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8692239552157681</v>
+        <v>2.139602137061474</v>
       </c>
       <c r="O21">
-        <v>2.38760972373808</v>
+        <v>4.19031302881308</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.615440914795073</v>
+        <v>1.252323974423689</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1158468937667791</v>
+        <v>0.1956668685959002</v>
       </c>
       <c r="E22">
-        <v>0.07873393998672817</v>
+        <v>0.2052929082909465</v>
       </c>
       <c r="F22">
-        <v>1.007524566435421</v>
+        <v>1.714759233571968</v>
       </c>
       <c r="G22">
-        <v>0.000796249793764785</v>
+        <v>0.002472202773565448</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09667584731564638</v>
+        <v>0.2686931198179447</v>
       </c>
       <c r="K22">
-        <v>2.128108955134138</v>
+        <v>0.6941940952922323</v>
       </c>
       <c r="L22">
-        <v>0.4664117437900899</v>
+        <v>0.2248638270795027</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8337647439713596</v>
+        <v>2.124667407556341</v>
       </c>
       <c r="O22">
-        <v>2.459325947549701</v>
+        <v>4.188991837701053</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.560750464716733</v>
+        <v>1.239041192170276</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1134253871158251</v>
+        <v>0.1953235086370597</v>
       </c>
       <c r="E23">
-        <v>0.07881607887900799</v>
+        <v>0.2056467229934871</v>
       </c>
       <c r="F23">
-        <v>0.9910553532762094</v>
+        <v>1.714567786570214</v>
       </c>
       <c r="G23">
-        <v>0.0007978264943609107</v>
+        <v>0.002473154498589767</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09781471534501662</v>
+        <v>0.2693723911511192</v>
       </c>
       <c r="K23">
-        <v>2.049870342815751</v>
+        <v>0.6713770307795528</v>
       </c>
       <c r="L23">
-        <v>0.44917526431027</v>
+        <v>0.2202024605539776</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8525671303906162</v>
+        <v>2.132585997620291</v>
       </c>
       <c r="O23">
-        <v>2.420609523523581</v>
+        <v>4.18953939600209</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.355767179377523</v>
+        <v>1.189502616561185</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1044328546113107</v>
+        <v>0.1941259794702717</v>
       </c>
       <c r="E24">
-        <v>0.07928972566730863</v>
+        <v>0.2070863291355529</v>
       </c>
       <c r="F24">
-        <v>0.9321037713356475</v>
+        <v>1.715189018516753</v>
       </c>
       <c r="G24">
-        <v>0.0008039140643565474</v>
+        <v>0.002476904209101451</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1023171996312326</v>
+        <v>0.2720615390175158</v>
       </c>
       <c r="K24">
-        <v>1.754868025432245</v>
+        <v>0.5849609679323748</v>
       </c>
       <c r="L24">
-        <v>0.3843178498200501</v>
+        <v>0.2026370512245848</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9264251008798978</v>
+        <v>2.163726538288002</v>
       </c>
       <c r="O24">
-        <v>2.283317205002021</v>
+        <v>4.195076418503163</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.138630166359604</v>
+        <v>1.137731624592107</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09508469935600061</v>
+        <v>0.1930560591717239</v>
       </c>
       <c r="E25">
-        <v>0.08013250516440173</v>
+        <v>0.2088528666014575</v>
       </c>
       <c r="F25">
-        <v>0.8751268307463818</v>
+        <v>1.718741195572818</v>
       </c>
       <c r="G25">
-        <v>0.00081074380271884</v>
+        <v>0.002481261118532824</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1075663032897758</v>
+        <v>0.275211929876777</v>
       </c>
       <c r="K25">
-        <v>1.438766657144015</v>
+        <v>0.4917737115941065</v>
       </c>
       <c r="L25">
-        <v>0.3150913173635388</v>
+        <v>0.1838858965009535</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.011431686878089</v>
+        <v>2.199773448782866</v>
       </c>
       <c r="O25">
-        <v>2.153194145934265</v>
+        <v>4.208455648071009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.101058557113987</v>
+        <v>0.981557849790903</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.192460773227225</v>
+        <v>0.08847487743214089</v>
       </c>
       <c r="E2">
-        <v>0.2103385038075398</v>
+        <v>0.08102403966399407</v>
       </c>
       <c r="F2">
-        <v>1.723840628001696</v>
+        <v>0.8382018619439933</v>
       </c>
       <c r="G2">
-        <v>0.002484740335981277</v>
+        <v>0.0008160143631847127</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2777475623083427</v>
+        <v>0.1117584079406839</v>
       </c>
       <c r="K2">
-        <v>0.4231933473978984</v>
+        <v>1.207137865678277</v>
       </c>
       <c r="L2">
-        <v>0.1702510204662246</v>
+        <v>0.2645813351111315</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.22843271254706</v>
+        <v>1.078333436818647</v>
       </c>
       <c r="O2">
-        <v>4.224683834273407</v>
+        <v>2.070980582045479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.077114746702648</v>
+        <v>0.8765788762811439</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1921783340519028</v>
+        <v>0.0841522523556506</v>
       </c>
       <c r="E3">
-        <v>0.211461293987087</v>
+        <v>0.08179055881806185</v>
       </c>
       <c r="F3">
-        <v>1.728848985728661</v>
+        <v>0.816010119640751</v>
       </c>
       <c r="G3">
-        <v>0.00248726880107774</v>
+        <v>0.0008197443077057609</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2796013600975842</v>
+        <v>0.1147986996408443</v>
       </c>
       <c r="K3">
-        <v>0.3767427502663452</v>
+        <v>1.050541473597519</v>
       </c>
       <c r="L3">
-        <v>0.1611192878145999</v>
+        <v>0.2305613204581647</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.249179115810777</v>
+        <v>1.12623379215979</v>
       </c>
       <c r="O3">
-        <v>4.239664043588675</v>
+        <v>2.022892025273563</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.062865150140539</v>
+        <v>0.8127618724542174</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1920649250370872</v>
+        <v>0.0815714227502724</v>
       </c>
       <c r="E4">
-        <v>0.2122080888849247</v>
+        <v>0.08233916887695081</v>
       </c>
       <c r="F4">
-        <v>1.732691006530068</v>
+        <v>0.8036882645592627</v>
       </c>
       <c r="G4">
-        <v>0.00248890586971608</v>
+        <v>0.0008221146826514771</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2808065774977031</v>
+        <v>0.1167621975707958</v>
       </c>
       <c r="K4">
-        <v>0.3482380443062141</v>
+        <v>0.954483880810443</v>
       </c>
       <c r="L4">
-        <v>0.1555667541306462</v>
+        <v>0.2097539394286088</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.262571177744029</v>
+        <v>1.156867425211966</v>
       </c>
       <c r="O4">
-        <v>4.250827949614802</v>
+        <v>1.996866145144281</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.057172623236767</v>
+        <v>0.7869055177114888</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.192033856226395</v>
+        <v>0.08053758118204257</v>
       </c>
       <c r="E5">
-        <v>0.2125268763087274</v>
+        <v>0.08258203841173994</v>
       </c>
       <c r="F5">
-        <v>1.734449707927617</v>
+        <v>0.7989818526219992</v>
       </c>
       <c r="G5">
-        <v>0.002489594319623674</v>
+        <v>0.0008231010981209712</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2813145828211603</v>
+        <v>0.1175864384580239</v>
       </c>
       <c r="K5">
-        <v>0.336626867931983</v>
+        <v>0.9153505114183815</v>
       </c>
       <c r="L5">
-        <v>0.1533178900329801</v>
+        <v>0.2012920556223321</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.268192993887338</v>
+        <v>1.169652458631343</v>
       </c>
       <c r="O5">
-        <v>4.255872057541922</v>
+        <v>1.987103961920866</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.056234305724388</v>
+        <v>0.7826208002004478</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1920296137301065</v>
+        <v>0.08036697587007779</v>
       </c>
       <c r="E6">
-        <v>0.2125806850795371</v>
+        <v>0.08262352427491848</v>
       </c>
       <c r="F6">
-        <v>1.73475340472497</v>
+        <v>0.7982190021232896</v>
       </c>
       <c r="G6">
-        <v>0.002489709926327893</v>
+        <v>0.0008232661366842642</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2813999563943304</v>
+        <v>0.1177247520618847</v>
       </c>
       <c r="K6">
-        <v>0.3346991456776607</v>
+        <v>0.9088527484423992</v>
       </c>
       <c r="L6">
-        <v>0.1529453084516632</v>
+        <v>0.1998879236498539</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.269136426100768</v>
+        <v>1.171793452082236</v>
       </c>
       <c r="O6">
-        <v>4.256739518643116</v>
+        <v>1.985532868035932</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.062787915088734</v>
+        <v>0.8124125736663927</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.192064444630283</v>
+        <v>0.0815574083769306</v>
       </c>
       <c r="E7">
-        <v>0.2122123295662046</v>
+        <v>0.08234236651444427</v>
       </c>
       <c r="F7">
-        <v>1.732713943073492</v>
+        <v>0.8036235342563316</v>
       </c>
       <c r="G7">
-        <v>0.002488915067879085</v>
+        <v>0.0008221279025552593</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2808133602943972</v>
+        <v>0.1167732162884159</v>
       </c>
       <c r="K7">
-        <v>0.3480814319217131</v>
+        <v>0.9539560865571275</v>
       </c>
       <c r="L7">
-        <v>0.1555363689159606</v>
+        <v>0.2096397534457708</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.262646329612979</v>
+        <v>1.15703863509971</v>
       </c>
       <c r="O7">
-        <v>4.250893972619139</v>
+        <v>1.996731120573941</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.09270929310162</v>
+        <v>0.9452210525570592</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1923509665291476</v>
+        <v>0.08696888098403122</v>
       </c>
       <c r="E8">
-        <v>0.2107137467469826</v>
+        <v>0.0812719708705778</v>
       </c>
       <c r="F8">
-        <v>1.725408470272846</v>
+        <v>0.8302714628841343</v>
       </c>
       <c r="G8">
-        <v>0.002485594633567351</v>
+        <v>0.0008172839972294753</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2783728670062553</v>
+        <v>0.1127864814592323</v>
       </c>
       <c r="K8">
-        <v>0.4071742128405731</v>
+        <v>1.153116258364122</v>
       </c>
       <c r="L8">
-        <v>0.1670912053546374</v>
+        <v>0.2528324938282225</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.235450442124066</v>
+        <v>1.094592124417151</v>
       </c>
       <c r="O8">
-        <v>4.229441177480766</v>
+        <v>2.053650434464316</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.154947221653202</v>
+        <v>1.211298471904172</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.193386681095312</v>
+        <v>0.09818932570176031</v>
       </c>
       <c r="E9">
-        <v>0.2082291545515833</v>
+        <v>0.07980558537074067</v>
       </c>
       <c r="F9">
-        <v>1.717159150954238</v>
+        <v>0.8934964869071962</v>
       </c>
       <c r="G9">
-        <v>0.002479751531908843</v>
+        <v>0.0008084066157772123</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2741172431735688</v>
+        <v>0.1057466360295543</v>
       </c>
       <c r="K9">
-        <v>0.5231596533615175</v>
+        <v>1.545028454532599</v>
       </c>
       <c r="L9">
-        <v>0.1901758310244617</v>
+        <v>0.3383280018746717</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.187302296827693</v>
+        <v>0.9821092958453406</v>
       </c>
       <c r="O9">
-        <v>4.202958732303955</v>
+        <v>2.194795471410913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.202818254818368</v>
+        <v>1.411061857956014</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1944336422787956</v>
+        <v>0.1068445148486816</v>
       </c>
       <c r="E10">
-        <v>0.2066788228956149</v>
+        <v>0.07913433980742823</v>
       </c>
       <c r="F10">
-        <v>1.714793836201864</v>
+        <v>0.9475515881796639</v>
       </c>
       <c r="G10">
-        <v>0.002475862001265224</v>
+        <v>0.0008022417868436046</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2713120466771768</v>
+        <v>0.1010637265656387</v>
       </c>
       <c r="K10">
-        <v>0.6084147525859294</v>
+        <v>1.834738281919556</v>
       </c>
       <c r="L10">
-        <v>0.2073894388844479</v>
+        <v>0.4018556404660245</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.155081141790747</v>
+        <v>0.9059442295908204</v>
       </c>
       <c r="O10">
-        <v>4.192990986065155</v>
+        <v>2.319075194165805</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.225056426734824</v>
+        <v>1.503066674221827</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1949714521842765</v>
+        <v>0.1108809010593461</v>
       </c>
       <c r="E11">
-        <v>0.2060329035485591</v>
+        <v>0.07892191153504591</v>
       </c>
       <c r="F11">
-        <v>1.714518441189966</v>
+        <v>0.9740105140181754</v>
       </c>
       <c r="G11">
-        <v>0.002474179297939689</v>
+        <v>0.0007995098412898964</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2701052979079916</v>
+        <v>0.0990430353116114</v>
       </c>
       <c r="K11">
-        <v>0.6472038826792357</v>
+        <v>1.967145700689713</v>
       </c>
       <c r="L11">
-        <v>0.2152741686547301</v>
+        <v>0.4309660080156448</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.141106259372561</v>
+        <v>0.8727941390596881</v>
       </c>
       <c r="O11">
-        <v>4.190514408256661</v>
+        <v>2.380693421351111</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.233543220176443</v>
+        <v>1.538086482216698</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1951839030125058</v>
+        <v>0.112424452156489</v>
       </c>
       <c r="E12">
-        <v>0.205796813661614</v>
+        <v>0.07885525177291086</v>
       </c>
       <c r="F12">
-        <v>1.714529104272842</v>
+        <v>0.984317820394665</v>
       </c>
       <c r="G12">
-        <v>0.0024735544999326</v>
+        <v>0.0007984853126996752</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2696582779790919</v>
+        <v>0.09829392190114561</v>
       </c>
       <c r="K12">
-        <v>0.6618926360590933</v>
+        <v>2.017393369039809</v>
       </c>
       <c r="L12">
-        <v>0.2182675593238343</v>
+        <v>0.4420245296307712</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.135912441962085</v>
+        <v>0.8604649185820286</v>
       </c>
       <c r="O12">
-        <v>4.189872235437917</v>
+        <v>2.404811977456831</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.23171252684935</v>
+        <v>1.530536072232394</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1951377577029305</v>
+        <v>0.1120913376246406</v>
       </c>
       <c r="E13">
-        <v>0.2058472819674364</v>
+        <v>0.07886898824577493</v>
       </c>
       <c r="F13">
-        <v>1.714521698192073</v>
+        <v>0.9820848355875711</v>
       </c>
       <c r="G13">
-        <v>0.002473688510600794</v>
+        <v>0.0007987055254871908</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2697541095652607</v>
+        <v>0.09845453650921865</v>
       </c>
       <c r="K13">
-        <v>0.6587291551472845</v>
+        <v>2.006566517977291</v>
       </c>
       <c r="L13">
-        <v>0.2176225432162653</v>
+        <v>0.4396412419772133</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.137026657449394</v>
+        <v>0.8631101312446909</v>
       </c>
       <c r="O13">
-        <v>4.189997393647729</v>
+        <v>2.399581796519328</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.225753327833928</v>
+        <v>1.505944075138075</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1949887547180253</v>
+        <v>0.1110075833139419</v>
       </c>
       <c r="E14">
-        <v>0.20601330997461</v>
+        <v>0.07891614869326702</v>
       </c>
       <c r="F14">
-        <v>1.714517015702839</v>
+        <v>0.9748526185801154</v>
       </c>
       <c r="G14">
-        <v>0.002474127647089253</v>
+        <v>0.0007994253547934497</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2700683220330076</v>
+        <v>0.09898108117133297</v>
       </c>
       <c r="K14">
-        <v>0.6484123364260483</v>
+        <v>1.971277330434134</v>
       </c>
       <c r="L14">
-        <v>0.215520285103139</v>
+        <v>0.4318750686934578</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.140676993469141</v>
+        <v>0.8717752660591058</v>
       </c>
       <c r="O14">
-        <v>4.190455652441329</v>
+        <v>2.382661612055443</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.222111680058276</v>
+        <v>1.490904673695638</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1948986296583826</v>
+        <v>0.1103457385319686</v>
       </c>
       <c r="E15">
-        <v>0.2061161138398298</v>
+        <v>0.07894684353258263</v>
       </c>
       <c r="F15">
-        <v>1.714529112100536</v>
+        <v>0.9704607573094819</v>
       </c>
       <c r="G15">
-        <v>0.002474398244809264</v>
+        <v>0.000799867560399083</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2702620813086565</v>
+        <v>0.09930570865601673</v>
       </c>
       <c r="K15">
-        <v>0.6420929850297625</v>
+        <v>1.949676321673024</v>
       </c>
       <c r="L15">
-        <v>0.2142335777492264</v>
+        <v>0.4271227731379241</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.142925713960435</v>
+        <v>0.8771123478530578</v>
       </c>
       <c r="O15">
-        <v>4.190774844403848</v>
+        <v>2.372401420456242</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.201374165388387</v>
+        <v>1.405073312149796</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1943997287487491</v>
+        <v>0.1065827896508083</v>
       </c>
       <c r="E16">
-        <v>0.2067222269383482</v>
+        <v>0.07915012773833041</v>
       </c>
       <c r="F16">
-        <v>1.714827928967111</v>
+        <v>0.9458616505365285</v>
       </c>
       <c r="G16">
-        <v>0.002475973708950071</v>
+        <v>0.0008024217487272109</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2713923040865636</v>
+        <v>0.1011980156519892</v>
       </c>
       <c r="K16">
-        <v>0.6058798528996192</v>
+        <v>1.826099164407083</v>
       </c>
       <c r="L16">
-        <v>0.2068752283608006</v>
+        <v>0.3999578533847483</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.156008170330137</v>
+        <v>0.9081415297231992</v>
       </c>
       <c r="O16">
-        <v>4.193194222586158</v>
+        <v>2.315155124820848</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.188770071696183</v>
+        <v>1.352720006318407</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1941093918659931</v>
+        <v>0.1043002838281737</v>
       </c>
       <c r="E17">
-        <v>0.2071092357745403</v>
+        <v>0.07929892776452796</v>
       </c>
       <c r="F17">
-        <v>1.715216170780494</v>
+        <v>0.9312628064821098</v>
       </c>
       <c r="G17">
-        <v>0.00247696236111863</v>
+        <v>0.0008040069291148698</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2721034049414497</v>
+        <v>0.1023871752551573</v>
       </c>
       <c r="K17">
-        <v>0.5836653244293473</v>
+        <v>1.750459777757499</v>
       </c>
       <c r="L17">
-        <v>0.2023748696174863</v>
+        <v>0.3833503979443122</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.164208682819683</v>
+        <v>0.9275665096921024</v>
       </c>
       <c r="O17">
-        <v>4.195205302715351</v>
+        <v>2.281375607957443</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.181563999359213</v>
+        <v>1.322713191884446</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1939481937256886</v>
+        <v>0.1029967230290723</v>
       </c>
       <c r="E18">
-        <v>0.2073374194212203</v>
+        <v>0.07939323366317375</v>
       </c>
       <c r="F18">
-        <v>1.715514843838832</v>
+        <v>0.9230406382829273</v>
       </c>
       <c r="G18">
-        <v>0.002477539168300346</v>
+        <v>0.0008049255304308514</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2725189401644812</v>
+        <v>0.1030814432250429</v>
       </c>
       <c r="K18">
-        <v>0.570888738700063</v>
+        <v>1.707010848237331</v>
       </c>
       <c r="L18">
-        <v>0.1997914918287904</v>
+        <v>0.3738178209176226</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.168989657926145</v>
+        <v>0.9388796751761719</v>
       </c>
       <c r="O18">
-        <v>4.196555727945622</v>
+        <v>2.26242148398606</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.179131633284612</v>
+        <v>1.312571010173201</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1938946119666696</v>
+        <v>0.1025569290798956</v>
       </c>
       <c r="E19">
-        <v>0.2074156387603363</v>
+        <v>0.07942664927900545</v>
       </c>
       <c r="F19">
-        <v>1.715628919058403</v>
+        <v>0.9202861958962814</v>
       </c>
       <c r="G19">
-        <v>0.002477735868511743</v>
+        <v>0.0008052377415285238</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2726607552761546</v>
+        <v>0.1033182690926706</v>
       </c>
       <c r="K19">
-        <v>0.5665629357445425</v>
+        <v>1.692308990099235</v>
       </c>
       <c r="L19">
-        <v>0.1989176874090219</v>
+        <v>0.3705934822555577</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.170619450291734</v>
+        <v>0.9427339838358586</v>
       </c>
       <c r="O19">
-        <v>4.19704623556828</v>
+        <v>2.256083926181049</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.190107304949862</v>
+        <v>1.358282075542434</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1941396992683195</v>
+        <v>0.104542294716147</v>
       </c>
       <c r="E20">
-        <v>0.2070674600440032</v>
+        <v>0.07928218228712325</v>
       </c>
       <c r="F20">
-        <v>1.715167042885852</v>
+        <v>0.9327986629207743</v>
       </c>
       <c r="G20">
-        <v>0.002476856273002759</v>
+        <v>0.0008038374782958851</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2720270314983431</v>
+        <v>0.1022595194456581</v>
       </c>
       <c r="K20">
-        <v>0.5860300396935259</v>
+        <v>1.758505702187051</v>
       </c>
       <c r="L20">
-        <v>0.2028534129417778</v>
+        <v>0.3851162294655524</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.163329073904591</v>
+        <v>0.9254840926409527</v>
       </c>
       <c r="O20">
-        <v>4.194971173896505</v>
+        <v>2.284921957669638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.227501911817598</v>
+        <v>1.513162326914028</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1950322822868884</v>
+        <v>0.1113254928244061</v>
       </c>
       <c r="E21">
-        <v>0.2059643128909094</v>
+        <v>0.07890191902091104</v>
       </c>
       <c r="F21">
-        <v>1.714515272777277</v>
+        <v>0.9769689241539794</v>
       </c>
       <c r="G21">
-        <v>0.002473998325854741</v>
+        <v>0.0007992136555313207</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2699757603642707</v>
+        <v>0.09882598324200043</v>
       </c>
       <c r="K21">
-        <v>0.6514426379026759</v>
+        <v>1.981639533620466</v>
       </c>
       <c r="L21">
-        <v>0.2161375640100687</v>
+        <v>0.4341551917034252</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.139602137061474</v>
+        <v>0.8692239552157561</v>
       </c>
       <c r="O21">
-        <v>4.19031302881308</v>
+        <v>2.387609723738052</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.252323974423689</v>
+        <v>1.615440914794817</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1956668685959002</v>
+        <v>0.1158468937665447</v>
       </c>
       <c r="E22">
-        <v>0.2052929082909465</v>
+        <v>0.07873393998671574</v>
       </c>
       <c r="F22">
-        <v>1.714759233571968</v>
+        <v>1.007524566435421</v>
       </c>
       <c r="G22">
-        <v>0.002472202773565448</v>
+        <v>0.000796249793765756</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2686931198179447</v>
+        <v>0.09667584731566237</v>
       </c>
       <c r="K22">
-        <v>0.6941940952922323</v>
+        <v>2.128108955134024</v>
       </c>
       <c r="L22">
-        <v>0.2248638270795027</v>
+        <v>0.466411743790033</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.124667407556341</v>
+        <v>0.8337647439713156</v>
       </c>
       <c r="O22">
-        <v>4.188991837701053</v>
+        <v>2.459325947549701</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.239041192170276</v>
+        <v>1.560750464716676</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1953235086370597</v>
+        <v>0.1134253871158251</v>
       </c>
       <c r="E23">
-        <v>0.2056467229934871</v>
+        <v>0.07881607887900799</v>
       </c>
       <c r="F23">
-        <v>1.714567786570214</v>
+        <v>0.9910553532761952</v>
       </c>
       <c r="G23">
-        <v>0.002473154498589767</v>
+        <v>0.0007978264944196539</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2693723911511192</v>
+        <v>0.09781471534503083</v>
       </c>
       <c r="K23">
-        <v>0.6713770307795528</v>
+        <v>2.04987034281578</v>
       </c>
       <c r="L23">
-        <v>0.2202024605539776</v>
+        <v>0.4491752643101563</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.132585997620291</v>
+        <v>0.8525671303906037</v>
       </c>
       <c r="O23">
-        <v>4.18953939600209</v>
+        <v>2.420609523523524</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.189502616561185</v>
+        <v>1.355767179377409</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1941259794702717</v>
+        <v>0.1044328546112041</v>
       </c>
       <c r="E24">
-        <v>0.2070863291355529</v>
+        <v>0.07928972566727666</v>
       </c>
       <c r="F24">
-        <v>1.715189018516753</v>
+        <v>0.9321037713356333</v>
       </c>
       <c r="G24">
-        <v>0.002476904209101451</v>
+        <v>0.0008039140643575104</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2720615390175158</v>
+        <v>0.1023171996312087</v>
       </c>
       <c r="K24">
-        <v>0.5849609679323748</v>
+        <v>1.754868025432245</v>
       </c>
       <c r="L24">
-        <v>0.2026370512245848</v>
+        <v>0.3843178498200785</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.163726538288002</v>
+        <v>0.9264251008799431</v>
       </c>
       <c r="O24">
-        <v>4.195076418503163</v>
+        <v>2.283317205001993</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.137731624592107</v>
+        <v>1.138630166359434</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1930560591717239</v>
+        <v>0.09508469935589403</v>
       </c>
       <c r="E25">
-        <v>0.2088528666014575</v>
+        <v>0.08013250516439818</v>
       </c>
       <c r="F25">
-        <v>1.718741195572818</v>
+        <v>0.8751268307463604</v>
       </c>
       <c r="G25">
-        <v>0.002481261118532824</v>
+        <v>0.0008107438027238089</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.275211929876777</v>
+        <v>0.1075663032896053</v>
       </c>
       <c r="K25">
-        <v>0.4917737115941065</v>
+        <v>1.438766657143958</v>
       </c>
       <c r="L25">
-        <v>0.1838858965009535</v>
+        <v>0.3150913173635104</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.199773448782866</v>
+        <v>1.011431686878012</v>
       </c>
       <c r="O25">
-        <v>4.208455648071009</v>
+        <v>2.153194145934179</v>
       </c>
     </row>
   </sheetData>
